--- a/ValueSet-vs-vl-interpretation.xlsx
+++ b/ValueSet-vs-vl-interpretation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:32:44+00:00</t>
+    <t>2022-11-15T14:41:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-vl-interpretation.xlsx
+++ b/ValueSet-vs-vl-interpretation.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-vl-interpretation</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/ValueSet/vs-vl-interpretation</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/CodeSystem/cs-vl-interpretation</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-vl-interpretation</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-vs-vl-interpretation.xlsx
+++ b/ValueSet-vs-vl-interpretation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T14:29:27+00:00</t>
+    <t>2022-11-30T18:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
